--- a/julia/Resolve_MILP/result_milp_Zkt.xlsx
+++ b/julia/Resolve_MILP/result_milp_Zkt.xlsx
@@ -449,7 +449,7 @@
         <v>3.3</v>
       </c>
       <c r="F2">
-        <v>0.0161</v>
+        <v>0.0176</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -469,7 +469,7 @@
         <v>370.7</v>
       </c>
       <c r="F3">
-        <v>0.1621</v>
+        <v>0.1667</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -489,7 +489,7 @@
         <v>97.2</v>
       </c>
       <c r="F4">
-        <v>0.0476</v>
+        <v>0.0506</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -509,7 +509,7 @@
         <v>842.8</v>
       </c>
       <c r="F5">
-        <v>0.7017</v>
+        <v>0.7433</v>
       </c>
     </row>
   </sheetData>
